--- a/output/fit_clients/fit_round_19.xlsx
+++ b/output/fit_clients/fit_round_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8625831053.223063</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003942414651414165</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1615088414238934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.716149171882282</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.02387776959275121</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.716149171882282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4312440878.950319</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005306755445583379</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.697589456463433</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9482457353191572</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.697589456463433</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6361070614.581206</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003598663507386717</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.700746651808933</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9873100937078063</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.700746651808933</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4039579016.058899</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003921693188279036</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.514286944793793</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7993192501627123</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.514286944793793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6037156730.398267</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002448382990607431</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.240994445675871</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8260608189946652</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.240994445675871</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7271265710.946422</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009630816223000606</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.712561455764185</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.982006068038815</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.712561455764185</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7050813787.623742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.00333597370107168</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502939</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.631836676675136</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9493466359794096</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.631836676675136</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6930942294.422303</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004189495896444019</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.914763921441871</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9607079500878766</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.914763921441871</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3218335954.482748</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004351092755937755</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.694152332485118</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9764658481517619</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-4.694152332485118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4571770913.602873</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00108212935564193</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.338659321585367</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.739589476077615</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.338659321585367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9005599079.861048</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001356598101083416</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.207278206243992</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.974116199245133</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.207278206243992</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5749725179.732998</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004389130618572637</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.08336698068209</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.044489586762151</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.08336698068209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7091022105.71178</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002798565362831365</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9319459415993214</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.384397451866394</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.135219495915724</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.384397451866394</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7621948991.337598</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004179624836014899</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.375613222434255</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9730433232581841</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.375613222434255</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6232179651.426081</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005396342410410933</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.184014673744112</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8994083072239504</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.184014673744112</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6923588354.296662</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003059148103972123</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.662807450826723</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9777421310791731</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.662807450826723</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4575544785.443726</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001325273728010062</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.998903418437692</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9927897996029328</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.998903418437692</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4058095362.864788</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002285376963170036</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.121120529104927</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9155228849274003</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.121120529104927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4724507607.084589</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001390536810440102</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.660438514236388</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8308212233120297</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.660438514236388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7688006218.392706</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005375437704003384</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.865760546700229</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8403369963825336</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.865760546700229</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4842336329.267912</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005534306509663653</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8.150514056423225</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9093200610440886</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-8.150514056423225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7070828019.119947</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001330498792590427</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.050314530187661</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9005689111877584</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-4.050314530187661</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8611875984.140545</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004443531339699053</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8.153677920264473</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.057984626845119</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-8.153677920264473</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7138125390.353236</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003215750389172056</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.760269338126966</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.252178509730189</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.760269338126966</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5817984050.73276</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009013423505081465</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8964245233258856</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.946653385390742</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.10823987492423</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.946653385390742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8820961564.981142</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.00273986756625898</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.747301369617245</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9635438880888131</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.747301369617245</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6316972246.882545</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003895861985506297</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.420334798422815</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8388516824854767</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.420334798422815</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7623993593.737421</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001541380217445836</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.828475606882714</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9955343515453842</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.828475606882714</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8872007516.662554</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003651317230202773</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9856352597791256</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.570077008091129</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.213811453404896</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.570077008091129</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5874953622.691274</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002552407516194052</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.773224506542633</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.946715791927237</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.773224506542633</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4192834981.901359</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001370545493811548</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.402098435100394</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9313586863008945</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.402098435100394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5244589789.186495</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002481645814156507</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.209094024169135</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8242654548429065</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.209094024169135</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5113311364.971006</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003742280426152268</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8767977734680897</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5100827326.60831</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002231398917001989</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>8.0406385475583</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.005335921236809</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-8.0406385475583</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7830579630.118615</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003755740397017478</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.696536818348284</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9835135252226112</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.696536818348284</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5405018713.164002</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00472594282428858</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.896599217825436</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.046681269455761</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-4.896599217825436</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3975364493.598944</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004654603627281921</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.033191541532386</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9063496385336998</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.033191541532386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5113590187.483081</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.00324113590520779</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.938074854185968</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9067964437746043</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-5.938074854185968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4876029217.274209</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003094082461496169</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.2265156769184555</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.913559017613154</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.5543293872922064</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-4.913559017613154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6563924457.742632</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001050272864493363</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9606194195884807</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.135999590903185</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.235899905927476</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.135999590903185</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5881692090.042885</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005147325798840225</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.621032849152508</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.004932928785281</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.621032849152508</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4957975515.794673</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00398235088363087</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.9834026632713535</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.842896069275137</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.283124987403048</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.842896069275137</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5728681156.983313</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001814453516163246</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1105650321715454</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.820087514100271</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-0.2176979044134673</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.820087514100271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5891332870.069558</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001627474839956136</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318265</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.006060060451934</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9786029194702236</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.006060060451934</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10756526708.99052</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004335785789796413</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8512481203250617</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.725054417937375</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.032374675499786</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.725054417937375</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8581963151.050636</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.0021647267517732</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.660734878006134</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9517574366509451</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-5.660734878006134</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6338670123.960754</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002280669586151824</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8.094742104044913</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.002214115070081</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-8.094742104044913</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4481906228.911368</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005346336533784871</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.525649377365462</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8275690901421104</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.525649377365462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7979752205.981313</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003015940679528626</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.2428986667468923</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.796135462321537</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.5808454136957055</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.796135462321537</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5425799933.622959</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005244131175624805</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.182782693306953</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9654998105003242</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-4.182782693306953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7830085785.27396</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001700702690341047</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.65587699526268</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8772959657349968</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.65587699526268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5900070363.785171</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003427127166668422</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.130062625062141</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9178018708930022</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.130062625062141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5119432425.602536</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00466642742843631</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.313551421359755</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.7980114052983378</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.313551421359755</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5786752550.140325</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004310755661519294</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.71433599344706</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9427219479139676</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-4.71433599344706</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4183711052.557676</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.0024028018815186</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.77928696038776</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9615839872161205</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.77928696038776</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6169101636.14788</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003894419576351771</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.680740509071713</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8555963528409596</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.680740509071713</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5914290063.3455</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002312062667916164</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.007288073390253</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7421358722818997</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.007288073390253</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6278783338.418099</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004285531805053915</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9415816041605556</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.662257979064636</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.17703896348564</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.662257979064636</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4482263747.636034</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002776606047946903</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.601323739636881</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.866514088312952</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.601323739636881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5996122436.461411</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005816114828286986</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.786874049514813</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9676611005228366</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.786874049514813</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5340556787.549143</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.004057175390292778</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5.304523865330795</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9019525963588152</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-5.304523865330795</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8045145720.183874</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005704512830554235</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.077223996196634</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9279880497424358</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-4.077223996196634</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4230716170.38035</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.00427942933390124</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5.7030359224248</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9373816881038868</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-5.7030359224248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4826205234.77869</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005256646154094784</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.173839285233624</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.034636627756862</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.173839285233624</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6672990101.056273</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003272253238770867</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.736228909080455</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8732530596794045</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.736228909080455</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>4895633851.971886</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004974675495296162</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.134796159977137</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9486728085715697</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.134796159977137</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6986475496.772643</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003136185170927657</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.981768965828087</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7443587161981918</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.981768965828087</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5649464585.927137</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009251017254300702</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.816452306720649</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.007210690139813</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.816452306720649</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6026106594.058769</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003359563876378504</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.8788177115995388</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.539941943920107</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.151650046327124</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.539941943920107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3790020908.789321</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.00276952598461953</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.999822600605912</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8753743275182888</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.999822600605912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7997138483.395212</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002389351661958622</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>8.04362560984486</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.124044776046685</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-8.04362560984486</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6775925629.851003</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001128400539482644</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.724957455920208</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9936375522815317</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.724957455920208</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6456419048.995226</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005008200824441108</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.9101251826978292</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.659403082690265</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.174381325272413</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-4.659403082690265</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6092697887.00641</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003859537637917557</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.238506119064766</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.7765257048475176</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.238506119064766</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5507738161.376483</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002411070442853031</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1474710677795005</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.789157573652111</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.1286866080794127</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.789157573652111</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7627473345.527734</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005201609845784931</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.783188184154808</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.012382673599357</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.783188184154808</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7020617827.213401</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.005136918760855595</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.759910927766995</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9504462614687241</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.759910927766995</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7542019698.971846</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.00192869314387239</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.038167327627484</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9324795243020516</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.038167327627484</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6380396234.75979</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002842226255909768</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2842424717326948</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.997154401643236</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.5652695512762363</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.997154401643236</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6162830490.524931</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004497435978347814</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.972892338111622</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.021824488667358</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.972892338111622</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6769262059.22985</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004660644065375905</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.822687634290623</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9604971128410535</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.822687634290623</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8865573522.694632</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002417016317600748</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.323646039285943</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.801928541124199</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.323646039285943</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6838040204.31851</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003685716012421535</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.08826679974408</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9676611005228366</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.08826679974408</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4193806825.511772</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003211449938154995</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.640530970868598</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.512989176042577</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.640530970868598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5629636520.135658</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002734113141130591</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.378640186372071</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9942809074031268</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.378640186372071</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4964152407.96613</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001587901652705711</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.378612212815566</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9520036935698456</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.378612212815566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7136500323.272273</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004322449079804207</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.048406098187699</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8418196895830611</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.048406098187699</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6518030810.73299</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004851898077758945</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.08671547896412986</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.805456926086043</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.3121116493111875</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.805456926086043</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4579495081.073747</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002499065348973593</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.652695435195442</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9657095555404909</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.652695435195442</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6884255007.347326</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.0040254173499205</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.913991916039838</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8777575603018192</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.913991916039838</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4352518879.320705</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003168091497583644</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.188617346454392</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.034440858584985</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.188617346454392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>8162584812.010932</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001648842917263175</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
         <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.410810509898196</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8706249038848392</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.410810509898196</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6036786980.892874</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.00155061662665404</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8.099466772484961</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.067811817496478</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-8.099466772484961</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6480836265.541965</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002054223839709998</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.049018453037912</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9040417832607421</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.049018453037912</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8666611424.076817</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002623968610218667</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.05790623728281449</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.444371193708455</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.4507871058446997</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.444371193708455</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7288584231.35218</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005495243692049331</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.864375011544603</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9146027299966842</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.864375011544603</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6721888467.680882</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003801556909383981</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.93170505514132</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8553596070710268</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.93170505514132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3289423585.185138</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005329013103031908</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.163642727331202</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9143812619095696</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-4.163642727331202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4917938572.224642</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00274555195281795</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7967299082455763</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.631738920912219</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.975511530178259</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.631738920912219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5545335982.098907</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001142173269550715</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5727176903806326</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.399701054089343</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8970825947004804</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.399701054089343</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_19.xlsx
+++ b/output/fit_clients/fit_round_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8625831053.223063</v>
+        <v>2506566862.945326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003942414651414165</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+        <v>0.08177186254046795</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04533016427541717</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1253283494.878233</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2373731723.041453</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1736160973161156</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04316465734256233</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4312440878.950319</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005306755445583379</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+      <c r="J3" t="n">
+        <v>1186865959.15126</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6361070614.581206</v>
+        <v>3568903545.478775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003598663507386717</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+        <v>0.1462000520404258</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02620828945551047</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1784451756.077432</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3656997784.537713</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08271733108573182</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04156874492033322</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4039579016.058899</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.003921693188279036</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1828498918.379579</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1833279952.256304</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1002030770122831</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03898964953366477</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>469</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6037156730.398267</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.002448382990607431</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+      <c r="J6" t="n">
+        <v>916640023.3959886</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7271265710.946422</v>
+        <v>2739495833.907886</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009630816223000606</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
+        <v>0.06903320443505337</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03334686882411553</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1369747906.632627</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7050813787.623742</v>
+        <v>3116020070.143353</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00333597370107168</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
+        <v>0.2119488107477429</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0225399588160007</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1558010104.181839</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6930942294.422303</v>
+        <v>2200794775.110193</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004189495896444019</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>0.1847130363813281</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02380197779357169</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1100397386.03765</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>571</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3777362529.307483</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1883287344443158</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04291103979916241</v>
+      </c>
+      <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>529</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3218335954.482748</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.004351092755937755</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1888681269.051389</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4571770913.602873</v>
+        <v>4269908847.365248</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00108212935564193</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1323582250276295</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04598833465537457</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2134954454.959846</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9005599079.861048</v>
+        <v>2207295790.601898</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001356598101083416</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
+        <v>0.1619811400981316</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03936057455231562</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1103647840.453131</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5749725179.732998</v>
+        <v>3249558927.196919</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004389130618572637</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.08603045522715286</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02519220950910692</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1624779556.390145</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7091022105.71178</v>
+        <v>3511728647.965155</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002798565362831365</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
+        <v>0.1620004956369083</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04294176592601618</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1755864321.01257</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7621948991.337598</v>
+        <v>1600888512.730314</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004179624836014899</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
+        <v>0.09624495472546171</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04400368814114326</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>800444364.4796965</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6232179651.426081</v>
+        <v>2603300055.56981</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005396342410410933</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
+        <v>0.08728950620971364</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04534563705647061</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1301650049.046463</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6923588354.296662</v>
+        <v>5194751741.01935</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003059148103972123</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
+        <v>0.1231401411874014</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03675109276951057</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2597375845.76997</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4575544785.443726</v>
+        <v>2450425854.166067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001325273728010062</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
+        <v>0.1665331482915907</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03391279800244788</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1225212996.870214</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4058095362.864788</v>
+        <v>894294944.1715776</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002285376963170036</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.155712958311667</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02719889610261438</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>447147475.3495728</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4724507607.084589</v>
+        <v>1811568243.672741</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001390536810440102</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1613245442119613</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02170907490787966</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>905784167.9854115</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7688006218.392706</v>
+        <v>2436524572.706974</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005375437704003384</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
+        <v>0.07568794825155599</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0281204118956778</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1218262280.332052</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4842336329.267912</v>
+        <v>3105104934.661315</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005534306509663653</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.137120461867749</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04577964651103318</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1552552522.298739</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7070828019.119947</v>
+        <v>1329817370.287552</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001330498792590427</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
+        <v>0.1288249762024108</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03667517315789416</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>664908699.5046024</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8611875984.140545</v>
+        <v>3336277160.989403</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004443531339699053</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
+        <v>0.1451147753306009</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02548543061352289</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1668138592.851083</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7138125390.353236</v>
+        <v>1133707739.901731</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003215750389172056</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
+        <v>0.1134427227693396</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02196922445760117</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>566853902.9013455</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5817984050.73276</v>
+        <v>990788331.7189964</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009013423505081465</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09139319686901856</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02844214127845299</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>495394135.3114792</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8820961564.981142</v>
+        <v>3895818134.607118</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00273986756625898</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
+        <v>0.1428674801574608</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02528678247262852</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1947909082.352968</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6316972246.882545</v>
+        <v>2372503555.025405</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003895861985506297</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
+        <v>0.1183064994410751</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04396604959698332</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1186251734.027525</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7623993593.737421</v>
+        <v>3857561179.844294</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001541380217445836</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
+        <v>0.1197862937911151</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04555273035044058</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1928780616.480014</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8872007516.662554</v>
+        <v>1998924300.238511</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003651317230202773</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
+        <v>0.09455837401844902</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03767338681567037</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>999462187.1475402</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5874953622.691274</v>
+        <v>1497415630.81489</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002552407516194052</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
+        <v>0.08072446978475056</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04935764399995625</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>748707696.5850112</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4192834981.901359</v>
+        <v>1382064550.50653</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001370545493811548</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08490471586572959</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02633386898304709</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>691032318.8960643</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5244589789.186495</v>
+        <v>2777747735.571144</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002481645814156507</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
+        <v>0.1950848116398382</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04296658413726403</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1388873882.055142</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5113311364.971006</v>
+        <v>1278163490.989573</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003742280426152268</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
+        <v>0.09146518258146814</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02120316514483393</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>639081737.428847</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5100827326.60831</v>
+        <v>1293487309.087566</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002231398917001989</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
+        <v>0.09966601179537142</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03552228401365791</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>646743608.4735426</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7830579630.118615</v>
+        <v>3233283114.570169</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003755740397017478</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
+        <v>0.1653307116242169</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01937124420915752</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1616641520.188287</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5405018713.164002</v>
+        <v>2911892337.146284</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00472594282428858</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
+        <v>0.0710159254486597</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02810915291174409</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1455946321.00192</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3975364493.598944</v>
+        <v>1694154203.016294</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004654603627281921</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1116988834004197</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03527912999450143</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>847077123.0321554</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5113590187.483081</v>
+        <v>1752628463.099788</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00324113590520779</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1590254500635418</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02146605102106843</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>876314263.3674319</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4876029217.274209</v>
+        <v>1807700947.831677</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003094082461496169</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
+        <v>0.1359597805585238</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04163012716846985</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>903850362.7879479</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6563924457.742632</v>
+        <v>2168302571.956644</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001050272864493363</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
+        <v>0.1010762736987592</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03095706692016536</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1084151343.401596</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5881692090.042885</v>
+        <v>4313420440.117461</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005147325798840225</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
+        <v>0.100544315980454</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0299011636128328</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2156710270.735168</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2945812529.601705</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1420030757825129</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02561493725566696</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>493</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4957975515.794673</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.00398235088363087</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1472906268.411708</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5728681156.983313</v>
+        <v>1627160178.981183</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001814453516163246</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
+        <v>0.06347971251286946</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03513151010730598</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>813580121.1876031</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5891332870.069558</v>
+        <v>2527578178.085499</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001627474839956136</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.125960975692416</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05501172867612738</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1263789132.785525</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10756526708.99052</v>
+        <v>4874899917.260665</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004335785789796413</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
+        <v>0.1203796660521072</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05075427083351709</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2437449977.990106</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8581963151.050636</v>
+        <v>4617913869.320609</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0021647267517732</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
+        <v>0.1611103005993627</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03847257327879351</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2308956968.574813</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6338670123.960754</v>
+        <v>4039271953.767208</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002280669586151824</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
+        <v>0.09671634271171352</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02432856916866485</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2019636008.708589</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4481906228.911368</v>
+        <v>1916102014.30918</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005346336533784871</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1719731315751393</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04197405137934581</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>958050974.2319238</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7979752205.981313</v>
+        <v>3723696100.879773</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003015940679528626</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.1382257361763763</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05250041347551985</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>5</v>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1861848058.426122</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5425799933.622959</v>
+        <v>1126590550.377575</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005244131175624805</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1226754108610957</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05439637750587341</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>563295338.2793816</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7830085785.27396</v>
+        <v>3497705375.610928</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001700702690341047</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
+        <v>0.1280027586088342</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05609594224922029</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1748852773.574615</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5900070363.785171</v>
+        <v>2917066537.43398</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003427127166668422</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
+        <v>0.123385444922459</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02403056920516825</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1458533306.603175</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5119432425.602536</v>
+        <v>3803020850.047424</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00466642742843631</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1302597019777838</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05110379313112905</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1901510473.366236</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5786752550.140325</v>
+        <v>3070077543.027008</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004310755661519294</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
+        <v>0.1483857423633118</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0257046106163816</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1535038705.082662</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4183711052.557676</v>
+        <v>1629766003.45269</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0024028018815186</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
+        <v>0.1011186489667747</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04126810192825682</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>814883024.5107367</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6169101636.14788</v>
+        <v>3006180323.653963</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003894419576351771</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
+        <v>0.1553907209380196</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01707020500575105</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1503090166.510881</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5914290063.3455</v>
+        <v>1557970455.798285</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002312062667916164</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1691216572049423</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03120730186553939</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>778985253.4771183</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6278783338.418099</v>
+        <v>4917538198.208177</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004285531805053915</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+        <v>0.1246883340444616</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04881708192621283</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2458769030.521054</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>490</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2343872898.903755</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1578132295238462</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0307384644732265</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>6</v>
       </c>
-      <c r="D60" t="n">
-        <v>424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4482263747.636034</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.002776606047946903</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+      <c r="J60" t="n">
+        <v>1171936450.781268</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5996122436.461411</v>
+        <v>2423543539.309927</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005816114828286986</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>4</v>
+        <v>0.1713478144947361</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0297893806281756</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1211771804.237627</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5340556787.549143</v>
+        <v>1435192515.159843</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004057175390292778</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1671591437297317</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04169630453771819</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>717596230.6679399</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8045145720.183874</v>
+        <v>3625234174.71905</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005704512830554235</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>5</v>
+        <v>0.07716359544868587</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0464059110797775</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1812617166.097954</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4230716170.38035</v>
+        <v>4666087092.208556</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00427942933390124</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1762404476460371</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02804033781560361</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2333043628.533823</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4826205234.77869</v>
+        <v>5113632449.867317</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005256646154094784</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
+        <v>0.1106936909757908</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.028080756175019</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2556816176.76248</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>475</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5729166571.986136</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1290149047895114</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0460303504683566</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="D66" t="n">
-        <v>472</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6672990101.056273</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.003272253238770867</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2864583351.924583</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>4895633851.971886</v>
+        <v>3472728300.23798</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004974675495296162</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
+        <v>0.1005744678370706</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03499828898854597</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1736364128.110565</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>496</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4422411673.696896</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1532143643136249</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04826061480216864</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>6</v>
       </c>
-      <c r="D68" t="n">
-        <v>462</v>
-      </c>
-      <c r="E68" t="n">
-        <v>6986475496.772643</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.003136185170927657</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>4</v>
+      <c r="J68" t="n">
+        <v>2211205857.999214</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5649464585.927137</v>
+        <v>1596038427.694788</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009251017254300702</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3</v>
+        <v>0.1564351556955313</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04622170106364697</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>798019166.2807443</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6026106594.058769</v>
+        <v>2621290117.948104</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003359563876378504</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
+        <v>0.1018463125032607</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03538445983053676</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1310645011.04665</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3790020908.789321</v>
+        <v>5512449488.649188</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00276952598461953</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1615589394991642</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02590909098075499</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2756224887.857167</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7997138483.395212</v>
+        <v>2061417280.436159</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002389351661958622</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
+        <v>0.1064610787139554</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04850085720792857</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1030708576.358973</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6775925629.851003</v>
+        <v>3246957410.238676</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001128400539482644</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
+        <v>0.09437425586455685</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04145530546617652</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1623478678.216923</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>514</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2897178686.357001</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1174236475667642</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0299176961451205</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
         <v>6</v>
       </c>
-      <c r="D74" t="n">
-        <v>520</v>
-      </c>
-      <c r="E74" t="n">
-        <v>6456419048.995226</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.005008200824441108</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
+      <c r="J74" t="n">
+        <v>1448589417.151828</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6092697887.00641</v>
+        <v>2128007581.802644</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003859537637917557</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
+        <v>0.155367734815337</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03294557796516633</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1064003742.75189</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5507738161.376483</v>
+        <v>4762708602.434576</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002411070442853031</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.08550036457069425</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0315756609186328</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2381354317.690472</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7627473345.527734</v>
+        <v>1970328065.643294</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005201609845784931</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>7</v>
+        <v>0.1680527750665823</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02775234720856115</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>985164089.6823055</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3986304727.833065</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1337865185123946</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03891355686151252</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
         <v>6</v>
       </c>
-      <c r="D78" t="n">
-        <v>454</v>
-      </c>
-      <c r="E78" t="n">
-        <v>7020617827.213401</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.005136918760855595</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>4</v>
+      <c r="J78" t="n">
+        <v>1993152330.342315</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7542019698.971846</v>
+        <v>1443539690.330408</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00192869314387239</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>4</v>
+        <v>0.1414839239681751</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03909126468779076</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>721769869.2352409</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>403</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3599815764.431271</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.108778762513553</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02366394867305171</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>4</v>
       </c>
-      <c r="D80" t="n">
-        <v>573</v>
-      </c>
-      <c r="E80" t="n">
-        <v>6380396234.75979</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.002842226255909768</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>6</v>
+      <c r="J80" t="n">
+        <v>1799907861.520076</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6162830490.524931</v>
+        <v>4056754081.461651</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004497435978347814</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
+        <v>0.09518669988697315</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01992987584003724</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2028377005.73674</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6769262059.22985</v>
+        <v>4032224816.747714</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004660644065375905</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
+        <v>0.1747738691745473</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01817094765916084</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2016112446.053452</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8865573522.694632</v>
+        <v>1505681154.91768</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002417016317600748</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>5</v>
+        <v>0.1050936767427232</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0326839742103826</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>752840500.7078408</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6838040204.31851</v>
+        <v>2559032264.067046</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003685716012421535</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>4</v>
+        <v>0.07979919594254101</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04444994548708904</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1279516054.841737</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4193806825.511772</v>
+        <v>2988284426.845503</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003211449938154995</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1222495246353189</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03521138939253825</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1494142272.010171</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5629636520.135658</v>
+        <v>1687893059.466632</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002734113141130591</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>6</v>
+        <v>0.1446465387404856</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02254759297170137</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>843946513.710436</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4964152407.96613</v>
+        <v>1155767785.349334</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001587901652705711</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.187793629273845</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02881652596637048</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>577883936.6425791</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7136500323.272273</v>
+        <v>3586394480.155006</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004322449079804207</v>
-      </c>
-      <c r="G88" t="b">
+        <v>0.1706153838905103</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03956640956361059</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="H88" t="n">
-        <v>4</v>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1793197328.220919</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6518030810.73299</v>
+        <v>2800785363.194701</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004851898077758945</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4</v>
+        <v>0.1309760802803087</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.04008514192231116</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1400392734.057477</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4579495081.073747</v>
+        <v>1565373810.103477</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002499065348973593</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.09658747378376069</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04552935990700539</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>782686895.4594725</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6884255007.347326</v>
+        <v>1803477717.215308</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0040254173499205</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>6</v>
+        <v>0.1315269767877586</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04396729945081403</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>901738856.7790037</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4352518879.320705</v>
+        <v>2749962530.188365</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003168091497583644</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1005153876476489</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03030862361515797</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1374981267.608015</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>8162584812.010932</v>
+        <v>4010961674.243969</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001648842917263175</v>
-      </c>
-      <c r="G93" t="b">
+        <v>0.1158361255536478</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03758598679057946</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="H93" t="n">
-        <v>6</v>
+      <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2005480836.780231</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6036786980.892874</v>
+        <v>2013398819.682505</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00155061662665404</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>7</v>
+        <v>0.1041216755795153</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0317801017124309</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1006699409.646634</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6480836265.541965</v>
+        <v>2207406278.933509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002054223839709998</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>5</v>
+        <v>0.08803228786294273</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04994409110302874</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1103703196.577559</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8666611424.076817</v>
+        <v>1614066173.156142</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002623968610218667</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>5</v>
+        <v>0.1328364981038537</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04709229529966225</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>807033114.3321778</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7288584231.35218</v>
+        <v>4983940560.521067</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005495243692049331</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>5</v>
+        <v>0.1366683530346506</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0262176079518174</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2491970415.442759</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6721888467.680882</v>
+        <v>2480399781.996962</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003801556909383981</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>7</v>
+        <v>0.1216266681049322</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02190834417809437</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1240199840.083656</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>493</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3023777355.990395</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1353540807087678</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02736681514216505</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>6</v>
       </c>
-      <c r="D99" t="n">
-        <v>567</v>
-      </c>
-      <c r="E99" t="n">
-        <v>3289423585.185138</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.005329013103031908</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+      <c r="J99" t="n">
+        <v>1511888665.434835</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>486</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3013044168.40445</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1426487483577515</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02686371245547554</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>6</v>
       </c>
-      <c r="D100" t="n">
-        <v>422</v>
-      </c>
-      <c r="E100" t="n">
-        <v>4917938572.224642</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.00274555195281795</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+      <c r="J100" t="n">
+        <v>1506522075.839005</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5545335982.098907</v>
+        <v>3103782227.676278</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001142173269550715</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>6</v>
+        <v>0.197402191343217</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03662350569073167</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1551891216.327209</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_19.xlsx
+++ b/output/fit_clients/fit_round_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2506566862.945326</v>
+        <v>1664052425.049236</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08177186254046795</v>
+        <v>0.1020134517134615</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04533016427541717</v>
+        <v>0.04249856095961763</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1253283494.878233</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2373731723.041453</v>
+        <v>1888104466.852058</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1736160973161156</v>
+        <v>0.159719711332335</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04316465734256233</v>
+        <v>0.04193682604244293</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1186865959.15126</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3568903545.478775</v>
+        <v>3744174068.256112</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1462000520404258</v>
+        <v>0.1596221291975766</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02620828945551047</v>
+        <v>0.02425603459014417</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1784451756.077432</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3656997784.537713</v>
+        <v>2626725228.631192</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08271733108573182</v>
+        <v>0.1104813790628877</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04156874492033322</v>
+        <v>0.0502673719532831</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1828498918.379579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1833279952.256304</v>
+        <v>2153758541.787855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1002030770122831</v>
+        <v>0.1040750225939173</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03898964953366477</v>
+        <v>0.03632305168734756</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>916640023.3959886</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2739495833.907886</v>
+        <v>2572823773.082055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06903320443505337</v>
+        <v>0.07146437718013542</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03334686882411553</v>
+        <v>0.04845709002551846</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1369747906.632627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3116020070.143353</v>
+        <v>3646773189.228832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2119488107477429</v>
+        <v>0.1890963346907284</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0225399588160007</v>
+        <v>0.02152821136314004</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1558010104.181839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2200794775.110193</v>
+        <v>2033177659.203873</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1847130363813281</v>
+        <v>0.1340042020667995</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02380197779357169</v>
+        <v>0.02538181936782027</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1100397386.03765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3777362529.307483</v>
+        <v>5786479150.057922</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1883287344443158</v>
+        <v>0.1825528488330025</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04291103979916241</v>
+        <v>0.03868037350910646</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1888681269.051389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4269908847.365248</v>
+        <v>3224830038.40708</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1323582250276295</v>
+        <v>0.1488514764810216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04598833465537457</v>
+        <v>0.04317510508706522</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2134954454.959846</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2207295790.601898</v>
+        <v>2064021096.239756</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1619811400981316</v>
+        <v>0.1389070063944944</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03936057455231562</v>
+        <v>0.04310223538552684</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1103647840.453131</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3249558927.196919</v>
+        <v>3775633590.353245</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08603045522715286</v>
+        <v>0.07212129015741102</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02519220950910692</v>
+        <v>0.02955648543947751</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1624779556.390145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3511728647.965155</v>
+        <v>2566235081.484425</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1620004956369083</v>
+        <v>0.1668097227054757</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04294176592601618</v>
+        <v>0.02854909941917909</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1755864321.01257</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1600888512.730314</v>
+        <v>1752940291.457581</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09624495472546171</v>
+        <v>0.07519522317124322</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04400368814114326</v>
+        <v>0.03612010931659257</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>800444364.4796965</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2603300055.56981</v>
+        <v>1836341914.957442</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08728950620971364</v>
+        <v>0.07362269999854223</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04534563705647061</v>
+        <v>0.05017352867119733</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1301650049.046463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5194751741.01935</v>
+        <v>4210684502.582224</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1231401411874014</v>
+        <v>0.1244779645183943</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03675109276951057</v>
+        <v>0.03353839516826809</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2597375845.76997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2450425854.166067</v>
+        <v>2758853874.522331</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1665331482915907</v>
+        <v>0.1322798766304353</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03391279800244788</v>
+        <v>0.02241118929528174</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1225212996.870214</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>894294944.1715776</v>
+        <v>1228605364.236745</v>
       </c>
       <c r="F19" t="n">
-        <v>0.155712958311667</v>
+        <v>0.1493061932545746</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02719889610261438</v>
+        <v>0.02446551127988484</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>447147475.3495728</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1811568243.672741</v>
+        <v>1925732652.272049</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1613245442119613</v>
+        <v>0.1387069284407531</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02170907490787966</v>
+        <v>0.02534530741767425</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>905784167.9854115</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2436524572.706974</v>
+        <v>2592460729.413784</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07568794825155599</v>
+        <v>0.09512062242866093</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0281204118956778</v>
+        <v>0.0406368305945012</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1218262280.332052</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3105104934.661315</v>
+        <v>4022351388.513787</v>
       </c>
       <c r="F22" t="n">
-        <v>0.137120461867749</v>
+        <v>0.1300463959129303</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04577964651103318</v>
+        <v>0.04249019132112996</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1552552522.298739</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1329817370.287552</v>
+        <v>1035585878.842893</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1288249762024108</v>
+        <v>0.1141928739296229</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03667517315789416</v>
+        <v>0.03668404243133556</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>664908699.5046024</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3336277160.989403</v>
+        <v>2750889532.643069</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1451147753306009</v>
+        <v>0.1148025904787822</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02548543061352289</v>
+        <v>0.03311349082959856</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1668138592.851083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1133707739.901731</v>
+        <v>1305313420.381395</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1134427227693396</v>
+        <v>0.07817490928414315</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02196922445760117</v>
+        <v>0.01960411299518414</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>566853902.9013455</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>990788331.7189964</v>
+        <v>1001339255.042445</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09139319686901856</v>
+        <v>0.1074400000563244</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02844214127845299</v>
+        <v>0.03472534184034819</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>495394135.3114792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3895818134.607118</v>
+        <v>3731032224.687927</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1428674801574608</v>
+        <v>0.1206262324352066</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02528678247262852</v>
+        <v>0.0228646796343233</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1947909082.352968</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2372503555.025405</v>
+        <v>2424172622.721972</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1183064994410751</v>
+        <v>0.1270887161185187</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04396604959698332</v>
+        <v>0.03671447098982476</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1186251734.027525</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3857561179.844294</v>
+        <v>4549184370.201449</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1197862937911151</v>
+        <v>0.1346793377218461</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04555273035044058</v>
+        <v>0.03808826867501684</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1928780616.480014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1998924300.238511</v>
+        <v>2259451345.531323</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09455837401844902</v>
+        <v>0.1334342383065551</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03767338681567037</v>
+        <v>0.02510876449468234</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>999462187.1475402</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1497415630.81489</v>
+        <v>1294396500.513539</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08072446978475056</v>
+        <v>0.1069580427931056</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04935764399995625</v>
+        <v>0.03302959338444849</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>748707696.5850112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1382064550.50653</v>
+        <v>1562280292.276105</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08490471586572959</v>
+        <v>0.09269020351249065</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02633386898304709</v>
+        <v>0.03782513791841129</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>691032318.8960643</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2777747735.571144</v>
+        <v>2819709217.658352</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1950848116398382</v>
+        <v>0.1805645595448966</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04296658413726403</v>
+        <v>0.05475329464836694</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1388873882.055142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1278163490.989573</v>
+        <v>1458323341.312653</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09146518258146814</v>
+        <v>0.1187980563571732</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02120316514483393</v>
+        <v>0.01840283280339207</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>639081737.428847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1293487309.087566</v>
+        <v>1282686280.810027</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09966601179537142</v>
+        <v>0.09939359867094094</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03552228401365791</v>
+        <v>0.03581940074785838</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>646743608.4735426</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3233283114.570169</v>
+        <v>3168023171.698216</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1653307116242169</v>
+        <v>0.1298920120074543</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01937124420915752</v>
+        <v>0.02231990068427505</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1616641520.188287</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2911892337.146284</v>
+        <v>2929169560.146019</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0710159254486597</v>
+        <v>0.07878063656749583</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02810915291174409</v>
+        <v>0.04149537987182129</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1455946321.00192</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1694154203.016294</v>
+        <v>1402594738.373068</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1116988834004197</v>
+        <v>0.1128376320897098</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03527912999450143</v>
+        <v>0.03425418706157839</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>847077123.0321554</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1752628463.099788</v>
+        <v>1416558244.678435</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1590254500635418</v>
+        <v>0.1864359326437665</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02146605102106843</v>
+        <v>0.02415605649114442</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>876314263.3674319</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1807700947.831677</v>
+        <v>1470829730.824172</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1359597805585238</v>
+        <v>0.1419706682662975</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04163012716846985</v>
+        <v>0.05325189633204838</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>903850362.7879479</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2168302571.956644</v>
+        <v>2580274614.533701</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1010762736987592</v>
+        <v>0.1575883346906927</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03095706692016536</v>
+        <v>0.03910222105429913</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1084151343.401596</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4313420440.117461</v>
+        <v>3763937454.505386</v>
       </c>
       <c r="F42" t="n">
-        <v>0.100544315980454</v>
+        <v>0.08752222153385465</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0299011636128328</v>
+        <v>0.02897070617479678</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2156710270.735168</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2945812529.601705</v>
+        <v>2374005749.134234</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1420030757825129</v>
+        <v>0.1670947664226968</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02561493725566696</v>
+        <v>0.01680436433519262</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1472906268.411708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1627160178.981183</v>
+        <v>2297557242.988132</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06347971251286946</v>
+        <v>0.1013084575084693</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03513151010730598</v>
+        <v>0.03342651905281175</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>813580121.1876031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2527578178.085499</v>
+        <v>1812869028.487263</v>
       </c>
       <c r="F45" t="n">
-        <v>0.125960975692416</v>
+        <v>0.1679379746934882</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05501172867612738</v>
+        <v>0.03499901083297998</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1263789132.785525</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4874899917.260665</v>
+        <v>3907445385.799744</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1203796660521072</v>
+        <v>0.1723921333275357</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05075427083351709</v>
+        <v>0.04668439436264651</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2437449977.990106</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4617913869.320609</v>
+        <v>3225723563.91941</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1611103005993627</v>
+        <v>0.1938290035713436</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03847257327879351</v>
+        <v>0.04957814533659594</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2308956968.574813</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4039271953.767208</v>
+        <v>4107082187.939863</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09671634271171352</v>
+        <v>0.08604700729241611</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02432856916866485</v>
+        <v>0.03309816270435703</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2019636008.708589</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1916102014.30918</v>
+        <v>1860189729.64766</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1719731315751393</v>
+        <v>0.1464577702302896</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04197405137934581</v>
+        <v>0.03290385573870527</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>958050974.2319238</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3723696100.879773</v>
+        <v>3111025808.037103</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1382257361763763</v>
+        <v>0.129152173378273</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05250041347551985</v>
+        <v>0.04880988506042569</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1861848058.426122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1126590550.377575</v>
+        <v>1547669062.804339</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1226754108610957</v>
+        <v>0.1628988864662045</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05439637750587341</v>
+        <v>0.05002424980694416</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>563295338.2793816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3497705375.610928</v>
+        <v>5110591530.968958</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1280027586088342</v>
+        <v>0.1376929026333412</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05609594224922029</v>
+        <v>0.04622375306304757</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1748852773.574615</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2917066537.43398</v>
+        <v>3351719442.465568</v>
       </c>
       <c r="F53" t="n">
-        <v>0.123385444922459</v>
+        <v>0.2006389936495903</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02403056920516825</v>
+        <v>0.03059489064223315</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1458533306.603175</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3803020850.047424</v>
+        <v>4615608233.535813</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1302597019777838</v>
+        <v>0.1497619615945389</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05110379313112905</v>
+        <v>0.04170747663663336</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1901510473.366236</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3070077543.027008</v>
+        <v>3615095183.741057</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1483857423633118</v>
+        <v>0.2141293745842897</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0257046106163816</v>
+        <v>0.02702319601783496</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1535038705.082662</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1629766003.45269</v>
+        <v>1491082521.120518</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1011186489667747</v>
+        <v>0.1048777897471345</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04126810192825682</v>
+        <v>0.05281645839533536</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>814883024.5107367</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3006180323.653963</v>
+        <v>3113277119.986941</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1553907209380196</v>
+        <v>0.1832403069848155</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01707020500575105</v>
+        <v>0.02313861425845542</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1503090166.510881</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1557970455.798285</v>
+        <v>1832396274.394495</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1691216572049423</v>
+        <v>0.14831405874352</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03120730186553939</v>
+        <v>0.02422274185233407</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>778985253.4771183</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4917538198.208177</v>
+        <v>3352007673.894467</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1246883340444616</v>
+        <v>0.08561673604220933</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04881708192621283</v>
+        <v>0.03588610338690801</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2458769030.521054</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2343872898.903755</v>
+        <v>2452665012.774494</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1578132295238462</v>
+        <v>0.183016955715998</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0307384644732265</v>
+        <v>0.02465939369128392</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1171936450.781268</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2423543539.309927</v>
+        <v>3040915252.372373</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1713478144947361</v>
+        <v>0.1262242016345746</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0297893806281756</v>
+        <v>0.02793301855215384</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1211771804.237627</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1435192515.159843</v>
+        <v>1526901064.875783</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1671591437297317</v>
+        <v>0.1795392945241229</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04169630453771819</v>
+        <v>0.03988071511584929</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>717596230.6679399</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3625234174.71905</v>
+        <v>4750067704.532747</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07716359544868587</v>
+        <v>0.07883549545255962</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0464059110797775</v>
+        <v>0.02995335740180856</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1812617166.097954</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4666087092.208556</v>
+        <v>5382653102.804668</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1762404476460371</v>
+        <v>0.1767116454972739</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02804033781560361</v>
+        <v>0.02474195899321132</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2333043628.533823</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5113632449.867317</v>
+        <v>4032260936.776516</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1106936909757908</v>
+        <v>0.1592436291878873</v>
       </c>
       <c r="G65" t="n">
-        <v>0.028080756175019</v>
+        <v>0.02048809729857943</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2556816176.76248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5729166571.986136</v>
+        <v>3962857094.322694</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1290149047895114</v>
+        <v>0.1095308799367378</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0460303504683566</v>
+        <v>0.03260649207130775</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2864583351.924583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3472728300.23798</v>
+        <v>3336750194.430295</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1005744678370706</v>
+        <v>0.06385923268533406</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03499828898854597</v>
+        <v>0.04330683904324834</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1736364128.110565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4422411673.696896</v>
+        <v>5318409259.58637</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1532143643136249</v>
+        <v>0.1183218132447022</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04826061480216864</v>
+        <v>0.03829157151137558</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2211205857.999214</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1596038427.694788</v>
+        <v>1754269456.579094</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1564351556955313</v>
+        <v>0.1552659411669244</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04622170106364697</v>
+        <v>0.03919187223245057</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>798019166.2807443</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2621290117.948104</v>
+        <v>3288122295.017852</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1018463125032607</v>
+        <v>0.08133469951016921</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03538445983053676</v>
+        <v>0.03091114317830585</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1310645011.04665</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5512449488.649188</v>
+        <v>4011557198.271105</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1615589394991642</v>
+        <v>0.1461236053929786</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02590909098075499</v>
+        <v>0.02170177859388176</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2756224887.857167</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2061417280.436159</v>
+        <v>1703694999.588078</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1064610787139554</v>
+        <v>0.08990392802742596</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04850085720792857</v>
+        <v>0.05266420350029349</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1030708576.358973</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3246957410.238676</v>
+        <v>2747375128.05816</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09437425586455685</v>
+        <v>0.08548296212110246</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04145530546617652</v>
+        <v>0.05230887137184269</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1623478678.216923</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2897178686.357001</v>
+        <v>2992863910.70569</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1174236475667642</v>
+        <v>0.1523541460454753</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0299176961451205</v>
+        <v>0.02970013269008671</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1448589417.151828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2128007581.802644</v>
+        <v>2276811430.30948</v>
       </c>
       <c r="F75" t="n">
-        <v>0.155367734815337</v>
+        <v>0.1445822232923132</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03294557796516633</v>
+        <v>0.03775610287403168</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1064003742.75189</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4762708602.434576</v>
+        <v>5053876626.031697</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08550036457069425</v>
+        <v>0.09877001161510437</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0315756609186328</v>
+        <v>0.02167271924186048</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2381354317.690472</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1970328065.643294</v>
+        <v>1501067355.757668</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1680527750665823</v>
+        <v>0.1783421422332657</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02775234720856115</v>
+        <v>0.02271576816905024</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>985164089.6823055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3986304727.833065</v>
+        <v>4190862797.272384</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1337865185123946</v>
+        <v>0.1166723789648928</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03891355686151252</v>
+        <v>0.03460041378428032</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1993152330.342315</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1443539690.330408</v>
+        <v>1208920070.448398</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1414839239681751</v>
+        <v>0.1494635357002566</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03909126468779076</v>
+        <v>0.03344133282030511</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>721769869.2352409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3599815764.431271</v>
+        <v>5566610310.79089</v>
       </c>
       <c r="F80" t="n">
-        <v>0.108778762513553</v>
+        <v>0.09336512910639289</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02366394867305171</v>
+        <v>0.03576249563154604</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1799907861.520076</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4056754081.461651</v>
+        <v>3831527233.915944</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09518669988697315</v>
+        <v>0.08914397518205078</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01992987584003724</v>
+        <v>0.03289370071220857</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2028377005.73674</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4032224816.747714</v>
+        <v>4616824423.512555</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1747738691745473</v>
+        <v>0.1340198474666932</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01817094765916084</v>
+        <v>0.02496839589526335</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2016112446.053452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1505681154.91768</v>
+        <v>1809134897.503546</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1050936767427232</v>
+        <v>0.1387290627774246</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0326839742103826</v>
+        <v>0.03775644544878515</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>752840500.7078408</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2559032264.067046</v>
+        <v>2356680345.546134</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07979919594254101</v>
+        <v>0.07603658770266071</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04444994548708904</v>
+        <v>0.05168167655133911</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1279516054.841737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2988284426.845503</v>
+        <v>3262016923.133478</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1222495246353189</v>
+        <v>0.1363735202755417</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03521138939253825</v>
+        <v>0.04698207675654721</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1494142272.010171</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1687893059.466632</v>
+        <v>2393125008.996748</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1446465387404856</v>
+        <v>0.1070311112897825</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02254759297170137</v>
+        <v>0.0172222942880619</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>843946513.710436</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1155767785.349334</v>
+        <v>1041657591.065503</v>
       </c>
       <c r="F87" t="n">
-        <v>0.187793629273845</v>
+        <v>0.1859483985587932</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02881652596637048</v>
+        <v>0.03631924056722113</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>577883936.6425791</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3586394480.155006</v>
+        <v>3031406380.805544</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1706153838905103</v>
+        <v>0.1762352239474277</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03956640956361059</v>
+        <v>0.03420824608124796</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1793197328.220919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2800785363.194701</v>
+        <v>2308809230.173221</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1309760802803087</v>
+        <v>0.09888647084073506</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04008514192231116</v>
+        <v>0.03518277348513796</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1400392734.057477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1565373810.103477</v>
+        <v>1371982647.496022</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09658747378376069</v>
+        <v>0.09038970153136196</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04552935990700539</v>
+        <v>0.04803455942530038</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>782686895.4594725</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1803477717.215308</v>
+        <v>1449284568.53054</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1315269767877586</v>
+        <v>0.1846362590169829</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04396729945081403</v>
+        <v>0.04268341260716918</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>901738856.7790037</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2749962530.188365</v>
+        <v>2241669517.308916</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1005153876476489</v>
+        <v>0.101113631526868</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03030862361515797</v>
+        <v>0.03624467252400217</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1374981267.608015</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4010961674.243969</v>
+        <v>4300193180.76192</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1158361255536478</v>
+        <v>0.1106204626255952</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03758598679057946</v>
+        <v>0.03687389803906082</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2005480836.780231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2013398819.682505</v>
+        <v>2178819906.780173</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1041216755795153</v>
+        <v>0.1102749277444027</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0317801017124309</v>
+        <v>0.04103627254600577</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1006699409.646634</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2207406278.933509</v>
+        <v>3178425027.511396</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08803228786294273</v>
+        <v>0.1000318661779152</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04994409110302874</v>
+        <v>0.03502290995536209</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1103703196.577559</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1614066173.156142</v>
+        <v>2202059150.551409</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1328364981038537</v>
+        <v>0.1264304139614799</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04709229529966225</v>
+        <v>0.04662163062160408</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>807033114.3321778</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4983940560.521067</v>
+        <v>4477216954.672399</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1366683530346506</v>
+        <v>0.1412034079717472</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0262176079518174</v>
+        <v>0.02517420194951584</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2491970415.442759</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2480399781.996962</v>
+        <v>2825086623.213832</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1216266681049322</v>
+        <v>0.1015157774710753</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02190834417809437</v>
+        <v>0.03282049094272294</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1240199840.083656</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3023777355.990395</v>
+        <v>2772930810.259771</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1353540807087678</v>
+        <v>0.109883039310777</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02736681514216505</v>
+        <v>0.02557029199237312</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1511888665.434835</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3013044168.40445</v>
+        <v>3987982141.142562</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1426487483577515</v>
+        <v>0.1761972973812513</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02686371245547554</v>
+        <v>0.02020062396040999</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1506522075.839005</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3103782227.676278</v>
+        <v>2996513093.562394</v>
       </c>
       <c r="F101" t="n">
-        <v>0.197402191343217</v>
+        <v>0.2181918631855894</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03662350569073167</v>
+        <v>0.04643018963257774</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1551891216.327209</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_19.xlsx
+++ b/output/fit_clients/fit_round_19.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1664052425.049236</v>
+        <v>2262228123.88055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1020134517134615</v>
+        <v>0.08311678304385751</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04249856095961763</v>
+        <v>0.04479059686556781</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1888104466.852058</v>
+        <v>1707747327.680773</v>
       </c>
       <c r="F3" t="n">
-        <v>0.159719711332335</v>
+        <v>0.1641359560872399</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04193682604244293</v>
+        <v>0.04720022972913045</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3744174068.256112</v>
+        <v>4756016871.317327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1596221291975766</v>
+        <v>0.1059825496128462</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02425603459014417</v>
+        <v>0.03749348499623272</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2626725228.631192</v>
+        <v>3527663783.423451</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1104813790628877</v>
+        <v>0.08483702848041912</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0502673719532831</v>
+        <v>0.04585209132556847</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2153758541.787855</v>
+        <v>2053293953.30323</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1040750225939173</v>
+        <v>0.1076112737980325</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03632305168734756</v>
+        <v>0.03517726941513939</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2572823773.082055</v>
+        <v>2808512597.928149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07146437718013542</v>
+        <v>0.1019677152653099</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04845709002551846</v>
+        <v>0.04678264104373746</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3646773189.228832</v>
+        <v>3521131934.171562</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1890963346907284</v>
+        <v>0.1788425145680657</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02152821136314004</v>
+        <v>0.02442662977279972</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2033177659.203873</v>
+        <v>1631684923.619904</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1340042020667995</v>
+        <v>0.1736392551004843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02538181936782027</v>
+        <v>0.03267007227507086</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5786479150.057922</v>
+        <v>3590611415.651306</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1825528488330025</v>
+        <v>0.1338738749598181</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03868037350910646</v>
+        <v>0.03746868235505181</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3224830038.40708</v>
+        <v>4230478124.325972</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1488514764810216</v>
+        <v>0.1664745785768177</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04317510508706522</v>
+        <v>0.04519498887499798</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2064021096.239756</v>
+        <v>2887930557.088821</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1389070063944944</v>
+        <v>0.1235059463902324</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04310223538552684</v>
+        <v>0.04630439853553685</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3775633590.353245</v>
+        <v>4805935866.408636</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07212129015741102</v>
+        <v>0.06405653078120699</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02955648543947751</v>
+        <v>0.02148602956552206</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2566235081.484425</v>
+        <v>3692469981.351118</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1668097227054757</v>
+        <v>0.1202591053926134</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02854909941917909</v>
+        <v>0.02893668168759941</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1752940291.457581</v>
+        <v>1670600375.284251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07519522317124322</v>
+        <v>0.07300601375631045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03612010931659257</v>
+        <v>0.0363522952089407</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1836341914.957442</v>
+        <v>2485727779.528425</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07362269999854223</v>
+        <v>0.08634204478972497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05017352867119733</v>
+        <v>0.04832507129289989</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4210684502.582224</v>
+        <v>4994687105.555028</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1244779645183943</v>
+        <v>0.1100182198806123</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03353839516826809</v>
+        <v>0.03997511679586645</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2758853874.522331</v>
+        <v>3676003652.888731</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1322798766304353</v>
+        <v>0.1250124802886584</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02241118929528174</v>
+        <v>0.0286843618166823</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1228605364.236745</v>
+        <v>1202409650.881444</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1493061932545746</v>
+        <v>0.1655540349888578</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02446551127988484</v>
+        <v>0.01962985609956875</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1925732652.272049</v>
+        <v>2001163473.630411</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1387069284407531</v>
+        <v>0.1157747060221844</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02534530741767425</v>
+        <v>0.02952010010813578</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2592460729.413784</v>
+        <v>2430250993.702866</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09512062242866093</v>
+        <v>0.08792609686075449</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0406368305945012</v>
+        <v>0.03714464537583765</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4022351388.513787</v>
+        <v>2449705857.302376</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1300463959129303</v>
+        <v>0.1356082008877225</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04249019132112996</v>
+        <v>0.04220672136158476</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1035585878.842893</v>
+        <v>1500032176.654093</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1141928739296229</v>
+        <v>0.1586756188636441</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03668404243133556</v>
+        <v>0.03302834310359702</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2750889532.643069</v>
+        <v>2841284889.296453</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1148025904787822</v>
+        <v>0.1236720736679561</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03311349082959856</v>
+        <v>0.02856456159183994</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1305313420.381395</v>
+        <v>1439869799.930583</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07817490928414315</v>
+        <v>0.1215993636411469</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01960411299518414</v>
+        <v>0.03096034341549189</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1001339255.042445</v>
+        <v>1130062918.503394</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1074400000563244</v>
+        <v>0.1087846616260731</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03472534184034819</v>
+        <v>0.03014052211328569</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3731032224.687927</v>
+        <v>3073459080.825535</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1206262324352066</v>
+        <v>0.1160898802692906</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0228646796343233</v>
+        <v>0.02207233874333794</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2424172622.721972</v>
+        <v>3166868664.725922</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1270887161185187</v>
+        <v>0.142541042972067</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03671447098982476</v>
+        <v>0.0310636794047675</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4549184370.201449</v>
+        <v>3623065342.066085</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1346793377218461</v>
+        <v>0.1303693837992468</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03808826867501684</v>
+        <v>0.0284977508913007</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2259451345.531323</v>
+        <v>1543043931.06606</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1334342383065551</v>
+        <v>0.1376340165538638</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02510876449468234</v>
+        <v>0.0270747254748507</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1294396500.513539</v>
+        <v>1446827248.038423</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1069580427931056</v>
+        <v>0.098905840386386</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03302959338444849</v>
+        <v>0.04878703561729849</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1562280292.276105</v>
+        <v>1601057058.63742</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09269020351249065</v>
+        <v>0.09838779336625866</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03782513791841129</v>
+        <v>0.03649309115147917</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2819709217.658352</v>
+        <v>2831401646.311246</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1805645595448966</v>
+        <v>0.2070945492182582</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05475329464836694</v>
+        <v>0.04249811329435362</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1458323341.312653</v>
+        <v>1217708489.731199</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1187980563571732</v>
+        <v>0.1062851658838124</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01840283280339207</v>
+        <v>0.02409831083219564</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1282686280.810027</v>
+        <v>975074862.5307943</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09939359867094094</v>
+        <v>0.08647049531063217</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03581940074785838</v>
+        <v>0.04124842612644085</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3168023171.698216</v>
+        <v>2571518878.264355</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1298920120074543</v>
+        <v>0.1425051343439403</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02231990068427505</v>
+        <v>0.02891983543581951</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2929169560.146019</v>
+        <v>1913041377.650888</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07878063656749583</v>
+        <v>0.1068766019540559</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04149537987182129</v>
+        <v>0.03642140942040978</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1402594738.373068</v>
+        <v>1935221291.472034</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1128376320897098</v>
+        <v>0.08825022454066288</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03425418706157839</v>
+        <v>0.02651493686790953</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1416558244.678435</v>
+        <v>1827216318.810636</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1864359326437665</v>
+        <v>0.1586373202188021</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02415605649114442</v>
+        <v>0.02150421961002371</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1470829730.824172</v>
+        <v>1468480439.132617</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1419706682662975</v>
+        <v>0.1435296065323685</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05325189633204838</v>
+        <v>0.05509892097721574</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2580274614.533701</v>
+        <v>1843352499.602394</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1575883346906927</v>
+        <v>0.1507949437004532</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03910222105429913</v>
+        <v>0.04002445324645593</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3763937454.505386</v>
+        <v>3893043102.03208</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08752222153385465</v>
+        <v>0.09547135886324618</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02897070617479678</v>
+        <v>0.03597996230876528</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2374005749.134234</v>
+        <v>2416179634.973315</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1670947664226968</v>
+        <v>0.169381710823985</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01680436433519262</v>
+        <v>0.0259527924705732</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2297557242.988132</v>
+        <v>1712608656.817106</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1013084575084693</v>
+        <v>0.08474588897141747</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03342651905281175</v>
+        <v>0.03161437424992643</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1812869028.487263</v>
+        <v>2035949853.23266</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1679379746934882</v>
+        <v>0.1460461639879816</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03499901083297998</v>
+        <v>0.04759017715880952</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3907445385.799744</v>
+        <v>5194820260.046834</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1723921333275357</v>
+        <v>0.1770065977577017</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04668439436264651</v>
+        <v>0.05042366554527014</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3225723563.91941</v>
+        <v>4152998323.396255</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1938290035713436</v>
+        <v>0.1968929046516199</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04957814533659594</v>
+        <v>0.04110778808769627</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4107082187.939863</v>
+        <v>2952863794.818048</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08604700729241611</v>
+        <v>0.09758695603424956</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03309816270435703</v>
+        <v>0.03170286151334601</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1860189729.64766</v>
+        <v>1223134770.34827</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1464577702302896</v>
+        <v>0.1812925800297093</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03290385573870527</v>
+        <v>0.03423831111723578</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3111025808.037103</v>
+        <v>4040383309.218176</v>
       </c>
       <c r="F50" t="n">
-        <v>0.129152173378273</v>
+        <v>0.1760093859645073</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04880988506042569</v>
+        <v>0.0507167418140202</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1547669062.804339</v>
+        <v>1376918349.439211</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1628988864662045</v>
+        <v>0.1902217927099246</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05002424980694416</v>
+        <v>0.04899128497456869</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5110591530.968958</v>
+        <v>4623583553.406865</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1376929026333412</v>
+        <v>0.1369130727974961</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04622375306304757</v>
+        <v>0.04897580457630922</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3351719442.465568</v>
+        <v>3025677847.98683</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2006389936495903</v>
+        <v>0.1615424912926788</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03059489064223315</v>
+        <v>0.02208286748396244</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4615608233.535813</v>
+        <v>2993675513.080246</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1497619615945389</v>
+        <v>0.1436338723643491</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04170747663663336</v>
+        <v>0.04956130842763441</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3615095183.741057</v>
+        <v>3648160102.656625</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2141293745842897</v>
+        <v>0.2171539091472196</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02702319601783496</v>
+        <v>0.02733325462110566</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1491082521.120518</v>
+        <v>1748826177.81566</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1048777897471345</v>
+        <v>0.1228926108345639</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05281645839533536</v>
+        <v>0.05017720291880198</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3113277119.986941</v>
+        <v>4327671131.895552</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1832403069848155</v>
+        <v>0.1486826389885522</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02313861425845542</v>
+        <v>0.02492643075347739</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1832396274.394495</v>
+        <v>1891782015.995227</v>
       </c>
       <c r="F58" t="n">
-        <v>0.14831405874352</v>
+        <v>0.1414122204455242</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02422274185233407</v>
+        <v>0.02512400608393748</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3352007673.894467</v>
+        <v>4341279342.267583</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08561673604220933</v>
+        <v>0.08456517265814317</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03588610338690801</v>
+        <v>0.03386039926900725</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2452665012.774494</v>
+        <v>2622465245.037429</v>
       </c>
       <c r="F60" t="n">
-        <v>0.183016955715998</v>
+        <v>0.2023978933702588</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02465939369128392</v>
+        <v>0.02138120092016598</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3040915252.372373</v>
+        <v>3371966871.581342</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1262242016345746</v>
+        <v>0.1759919688389542</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02793301855215384</v>
+        <v>0.02424164414685997</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1526901064.875783</v>
+        <v>1369393475.810111</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1795392945241229</v>
+        <v>0.1869404769192139</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03988071511584929</v>
+        <v>0.04556649152411384</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4750067704.532747</v>
+        <v>3912651247.617615</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07883549545255962</v>
+        <v>0.09781389975491429</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02995335740180856</v>
+        <v>0.04541765039453641</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5382653102.804668</v>
+        <v>4493262975.610188</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1767116454972739</v>
+        <v>0.1753863670413466</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02474195899321132</v>
+        <v>0.03406963182045317</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4032260936.776516</v>
+        <v>4249742833.649291</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1592436291878873</v>
+        <v>0.1287229618095687</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02048809729857943</v>
+        <v>0.02105893921898156</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3962857094.322694</v>
+        <v>3854132231.482105</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1095308799367378</v>
+        <v>0.1618166054936397</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03260649207130775</v>
+        <v>0.03625298518609461</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3336750194.430295</v>
+        <v>3166536008.509676</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06385923268533406</v>
+        <v>0.0967079211081885</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04330683904324834</v>
+        <v>0.03481921630984819</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5318409259.58637</v>
+        <v>4149453566.180614</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1183218132447022</v>
+        <v>0.1518989213054186</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03829157151137558</v>
+        <v>0.04801143405458599</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1754269456.579094</v>
+        <v>2107197817.69054</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1552659411669244</v>
+        <v>0.1250471317557448</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03919187223245057</v>
+        <v>0.04601539378146727</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3288122295.017852</v>
+        <v>2660096523.117435</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08133469951016921</v>
+        <v>0.07697406024678155</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03091114317830585</v>
+        <v>0.03088845071686317</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4011557198.271105</v>
+        <v>3487179187.627391</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1461236053929786</v>
+        <v>0.1189146552637581</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02170177859388176</v>
+        <v>0.03371797103661281</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1703694999.588078</v>
+        <v>1376002614.931244</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08990392802742596</v>
+        <v>0.07239382541318139</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05266420350029349</v>
+        <v>0.05254856712513659</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2747375128.05816</v>
+        <v>3339934110.29792</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08548296212110246</v>
+        <v>0.09657967461134195</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05230887137184269</v>
+        <v>0.0502228156699514</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2992863910.70569</v>
+        <v>2786319498.855587</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1523541460454753</v>
+        <v>0.131300340548135</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02970013269008671</v>
+        <v>0.02282086800947885</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2276811430.30948</v>
+        <v>2150565210.275017</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1445822232923132</v>
+        <v>0.1357713833071384</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03775610287403168</v>
+        <v>0.02821628530408808</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5053876626.031697</v>
+        <v>3291888935.00723</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09877001161510437</v>
+        <v>0.1036531034826649</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02167271924186048</v>
+        <v>0.02274986665402975</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1501067355.757668</v>
+        <v>1812365437.76965</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1783421422332657</v>
+        <v>0.1253201158405</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02271576816905024</v>
+        <v>0.03055142719422039</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4190862797.272384</v>
+        <v>3245934545.631435</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1166723789648928</v>
+        <v>0.1204471368098644</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03460041378428032</v>
+        <v>0.04816914601899291</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1208920070.448398</v>
+        <v>1762509951.202457</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1494635357002566</v>
+        <v>0.147030349423803</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03344133282030511</v>
+        <v>0.03248770838575352</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5566610310.79089</v>
+        <v>5419080378.082039</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09336512910639289</v>
+        <v>0.08852156132973706</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03576249563154604</v>
+        <v>0.03806714023551625</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3831527233.915944</v>
+        <v>4137927644.137391</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08914397518205078</v>
+        <v>0.1255696793567262</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03289370071220857</v>
+        <v>0.02038719830612159</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4616824423.512555</v>
+        <v>5473027249.615342</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1340198474666932</v>
+        <v>0.1362912463528666</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02496839589526335</v>
+        <v>0.01814743038295423</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1809134897.503546</v>
+        <v>2055520217.454342</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1387290627774246</v>
+        <v>0.1130041587318171</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03775644544878515</v>
+        <v>0.04291879956125701</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2356680345.546134</v>
+        <v>1658419432.746378</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07603658770266071</v>
+        <v>0.08357934365799995</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05168167655133911</v>
+        <v>0.03296409713826048</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3262016923.133478</v>
+        <v>2669414766.469278</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1363735202755417</v>
+        <v>0.1634730010828639</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04698207675654721</v>
+        <v>0.04168145591204391</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2393125008.996748</v>
+        <v>2250534730.765814</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1070311112897825</v>
+        <v>0.1275613569524152</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0172222942880619</v>
+        <v>0.01986117058041262</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1041657591.065503</v>
+        <v>1185481854.454227</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1859483985587932</v>
+        <v>0.1736671713100902</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03631924056722113</v>
+        <v>0.03487325176246062</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3031406380.805544</v>
+        <v>2888745121.213088</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1762352239474277</v>
+        <v>0.170257971732432</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03420824608124796</v>
+        <v>0.03956995686127795</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2308809230.173221</v>
+        <v>3167090074.435063</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09888647084073506</v>
+        <v>0.1041821486767963</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03518277348513796</v>
+        <v>0.02889385981908521</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1371982647.496022</v>
+        <v>1798398130.410226</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09038970153136196</v>
+        <v>0.1238952566159356</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04803455942530038</v>
+        <v>0.04959844947069673</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1449284568.53054</v>
+        <v>1794859611.538777</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1846362590169829</v>
+        <v>0.1709144283888809</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04268341260716918</v>
+        <v>0.05192713601897994</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2241669517.308916</v>
+        <v>2054276047.379888</v>
       </c>
       <c r="F92" t="n">
-        <v>0.101113631526868</v>
+        <v>0.09566915498532071</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03624467252400217</v>
+        <v>0.03167217281366412</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4300193180.76192</v>
+        <v>4801984400.843287</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1106204626255952</v>
+        <v>0.105858095692769</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03687389803906082</v>
+        <v>0.05181985353648343</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2178819906.780173</v>
+        <v>1542272252.983705</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1102749277444027</v>
+        <v>0.1666377647110231</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04103627254600577</v>
+        <v>0.04104085603069654</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3178425027.511396</v>
+        <v>3108041153.983065</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1000318661779152</v>
+        <v>0.1297162086084687</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03502290995536209</v>
+        <v>0.05185563286750439</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2202059150.551409</v>
+        <v>2049853821.301728</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1264304139614799</v>
+        <v>0.0935391292117351</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04662163062160408</v>
+        <v>0.04365406814509457</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4477216954.672399</v>
+        <v>4294029259.196945</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1412034079717472</v>
+        <v>0.1561897190573718</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02517420194951584</v>
+        <v>0.0196996983116348</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2825086623.213832</v>
+        <v>2383420844.580987</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1015157774710753</v>
+        <v>0.1195197883250945</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03282049094272294</v>
+        <v>0.02206235675523172</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2772930810.259771</v>
+        <v>2655814486.38741</v>
       </c>
       <c r="F99" t="n">
-        <v>0.109883039310777</v>
+        <v>0.1441680436959767</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02557029199237312</v>
+        <v>0.02434111354635006</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3987982141.142562</v>
+        <v>3345204669.547442</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1761972973812513</v>
+        <v>0.1659674063244056</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02020062396040999</v>
+        <v>0.0247661405379641</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2996513093.562394</v>
+        <v>2994257889.827386</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2181918631855894</v>
+        <v>0.1341697499548156</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04643018963257774</v>
+        <v>0.05284000792523002</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_19.xlsx
+++ b/output/fit_clients/fit_round_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2262228123.88055</v>
+        <v>1793523755.083282</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08311678304385751</v>
+        <v>0.09100843721488211</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04479059686556781</v>
+        <v>0.03873383882779179</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1707747327.680773</v>
+        <v>2056732819.943511</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1641359560872399</v>
+        <v>0.1815433787479319</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04720022972913045</v>
+        <v>0.04330893564614677</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4756016871.317327</v>
+        <v>3178614951.206675</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1059825496128462</v>
+        <v>0.1335308674621575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03749348499623272</v>
+        <v>0.03155145101916299</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>134.9874777958847</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3527663783.423451</v>
+        <v>4133620286.091564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08483702848041912</v>
+        <v>0.07457322414605329</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04585209132556847</v>
+        <v>0.03798679525738353</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>224.4635362306558</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2053293953.30323</v>
+        <v>2858943870.236342</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1076112737980325</v>
+        <v>0.1123808016970544</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03517726941513939</v>
+        <v>0.04096765770314734</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2808512597.928149</v>
+        <v>2707686751.91012</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1019677152653099</v>
+        <v>0.1009585513633682</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04678264104373746</v>
+        <v>0.03134186507168116</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3521131934.171562</v>
+        <v>3280469129.132092</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1788425145680657</v>
+        <v>0.1740913460811856</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02442662977279972</v>
+        <v>0.02501039164627584</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1631684923.619904</v>
+        <v>1528342523.950061</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1736392551004843</v>
+        <v>0.1559265330379631</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03267007227507086</v>
+        <v>0.0301811914918714</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3590611415.651306</v>
+        <v>4926039008.556076</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1338738749598181</v>
+        <v>0.2117315478885545</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03746868235505181</v>
+        <v>0.03383083240285834</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.9959359902387</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4230478124.325972</v>
+        <v>3041706741.867715</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1664745785768177</v>
+        <v>0.160684062759218</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04519498887499798</v>
+        <v>0.03367722030246256</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2887930557.088821</v>
+        <v>2674578691.523505</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1235059463902324</v>
+        <v>0.1919449674185222</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04630439853553685</v>
+        <v>0.03332301306316882</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4805935866.408636</v>
+        <v>4064839234.384529</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06405653078120699</v>
+        <v>0.07902922450890251</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02148602956552206</v>
+        <v>0.02142195735427934</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>19</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3692469981.351118</v>
+        <v>3488542333.163558</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1202591053926134</v>
+        <v>0.1189339257436457</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02893668168759941</v>
+        <v>0.03627137220565521</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1670600375.284251</v>
+        <v>1126604468.506316</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07300601375631045</v>
+        <v>0.08683324451537697</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0363522952089407</v>
+        <v>0.04791874924610341</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2485727779.528425</v>
+        <v>1989646602.618323</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08634204478972497</v>
+        <v>0.1021887770197061</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04832507129289989</v>
+        <v>0.03417373011491076</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4994687105.555028</v>
+        <v>3239402832.788189</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1100182198806123</v>
+        <v>0.1330403444138258</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03997511679586645</v>
+        <v>0.03548716906257374</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>18</v>
+      </c>
+      <c r="K17" t="n">
+        <v>128.437426503884</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3676003652.888731</v>
+        <v>3352082042.4604</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1250124802886584</v>
+        <v>0.1831577125935364</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0286843618166823</v>
+        <v>0.02830906005371562</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1202409650.881444</v>
+        <v>1050056799.233322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1655540349888578</v>
+        <v>0.1775606667597917</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01962985609956875</v>
+        <v>0.02458692649597403</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2001163473.630411</v>
+        <v>2786816031.934972</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1157747060221844</v>
+        <v>0.152660789423161</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02952010010813578</v>
+        <v>0.02147916690296353</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2430250993.702866</v>
+        <v>2440302120.961367</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08792609686075449</v>
+        <v>0.1012122708424852</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03714464537583765</v>
+        <v>0.02824474199913573</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2449705857.302376</v>
+        <v>3199353269.496922</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1356082008877225</v>
+        <v>0.09112218844737202</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04220672136158476</v>
+        <v>0.05466640911383311</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1500032176.654093</v>
+        <v>1164055216.550416</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1586756188636441</v>
+        <v>0.1255246480914052</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03302834310359702</v>
+        <v>0.04963942345004049</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2841284889.296453</v>
+        <v>2897871939.120968</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1236720736679561</v>
+        <v>0.09678395130780887</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02856456159183994</v>
+        <v>0.03441391578576863</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1439869799.930583</v>
+        <v>1364056559.73086</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1215993636411469</v>
+        <v>0.1070060114462962</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03096034341549189</v>
+        <v>0.02674140897710974</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1130062918.503394</v>
+        <v>1345098737.944065</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1087846616260731</v>
+        <v>0.07983905950875309</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03014052211328569</v>
+        <v>0.03499891985389979</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3073459080.825535</v>
+        <v>4011193547.529504</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1160898802692906</v>
+        <v>0.1506725531378324</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02207233874333794</v>
+        <v>0.01716085944451948</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>19</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3166868664.725922</v>
+        <v>3861458467.234925</v>
       </c>
       <c r="F28" t="n">
-        <v>0.142541042972067</v>
+        <v>0.1352131399136863</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0310636794047675</v>
+        <v>0.03531175592136754</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>19</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3623065342.066085</v>
+        <v>3573862695.115368</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1303693837992468</v>
+        <v>0.1439790617990642</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0284977508913007</v>
+        <v>0.04670564003714241</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>18</v>
+      </c>
+      <c r="K29" t="n">
+        <v>191.2006791212948</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1543043931.06606</v>
+        <v>1563949693.462179</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1376340165538638</v>
+        <v>0.1312127702299781</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0270747254748507</v>
+        <v>0.03367645091599879</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1446827248.038423</v>
+        <v>1165415953.773372</v>
       </c>
       <c r="F31" t="n">
-        <v>0.098905840386386</v>
+        <v>0.08649891276581963</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04878703561729849</v>
+        <v>0.04060743093305177</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1601057058.63742</v>
+        <v>1761905038.224018</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09838779336625866</v>
+        <v>0.09574304952791308</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03649309115147917</v>
+        <v>0.03512133739637132</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2831401646.311246</v>
+        <v>2768390591.948969</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2070945492182582</v>
+        <v>0.1865954320718694</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04249811329435362</v>
+        <v>0.05391353657838901</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1217708489.731199</v>
+        <v>1412003591.740278</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1062851658838124</v>
+        <v>0.08762427520859913</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02409831083219564</v>
+        <v>0.02695888106560768</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>975074862.5307943</v>
+        <v>1272938372.285993</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08647049531063217</v>
+        <v>0.1132650687574797</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04124842612644085</v>
+        <v>0.03911527877222766</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2571518878.264355</v>
+        <v>2769414370.791073</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1425051343439403</v>
+        <v>0.1699514411800823</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02891983543581951</v>
+        <v>0.02434293013803773</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1913041377.650888</v>
+        <v>1778738233.66334</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1068766019540559</v>
+        <v>0.07858939636515744</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03642140942040978</v>
+        <v>0.04237528709159395</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1935221291.472034</v>
+        <v>1710606203.560994</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08825022454066288</v>
+        <v>0.08411285697088158</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02651493686790953</v>
+        <v>0.02731099896080431</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1827216318.810636</v>
+        <v>1989052551.208239</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1586373202188021</v>
+        <v>0.1690807844717271</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02150421961002371</v>
+        <v>0.02549759559897386</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1468480439.132617</v>
+        <v>1778052061.347279</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1435296065323685</v>
+        <v>0.1400754795777986</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05509892097721574</v>
+        <v>0.04189201728801357</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1843352499.602394</v>
+        <v>2649732640.636694</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1507949437004532</v>
+        <v>0.1113758921485114</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04002445324645593</v>
+        <v>0.04483265709395261</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3893043102.03208</v>
+        <v>2885370011.968675</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09547135886324618</v>
+        <v>0.09403601022854477</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03597996230876528</v>
+        <v>0.03906748095154342</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>18</v>
+      </c>
+      <c r="K42" t="n">
+        <v>108.300437462309</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2416179634.973315</v>
+        <v>2615868042.454302</v>
       </c>
       <c r="F43" t="n">
-        <v>0.169381710823985</v>
+        <v>0.1714333060418252</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0259527924705732</v>
+        <v>0.01755541922960416</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1712608656.817106</v>
+        <v>2143556574.645503</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08474588897141747</v>
+        <v>0.09529280108954609</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03161437424992643</v>
+        <v>0.02279940373065034</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2035949853.23266</v>
+        <v>1561876491.496922</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1460461639879816</v>
+        <v>0.1843066368168996</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04759017715880952</v>
+        <v>0.0452794043547629</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5194820260.046834</v>
+        <v>5014835206.865818</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1770065977577017</v>
+        <v>0.1317656249372034</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05042366554527014</v>
+        <v>0.04469780485370294</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" t="n">
+        <v>19</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.1549870277313</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4152998323.396255</v>
+        <v>4307164331.543767</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1968929046516199</v>
+        <v>0.1630881670840818</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04110778808769627</v>
+        <v>0.03905863439679463</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>18</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.6691547645753</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2952863794.818048</v>
+        <v>3013266447.421884</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09758695603424956</v>
+        <v>0.09301616085767216</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03170286151334601</v>
+        <v>0.03251856400998246</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1223134770.34827</v>
+        <v>1312447408.158417</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1812925800297093</v>
+        <v>0.1510587514354229</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03423831111723578</v>
+        <v>0.04074259916933474</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4040383309.218176</v>
+        <v>2538115731.016735</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1760093859645073</v>
+        <v>0.1437842964296029</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0507167418140202</v>
+        <v>0.04911030264774004</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>18</v>
+      </c>
+      <c r="K50" t="n">
+        <v>84.92807408321372</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1376918349.439211</v>
+        <v>939857597.0196865</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1902217927099246</v>
+        <v>0.1859013976995773</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04899128497456869</v>
+        <v>0.03800778239428105</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4623583553.406865</v>
+        <v>3832732136.352401</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1369130727974961</v>
+        <v>0.1206635444525115</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04897580457630922</v>
+        <v>0.05733107906514175</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>13</v>
+      </c>
+      <c r="J52" t="n">
+        <v>18</v>
+      </c>
+      <c r="K52" t="n">
+        <v>209.5371653354572</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3025677847.98683</v>
+        <v>3090677661.566269</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1615424912926788</v>
+        <v>0.1431436451444569</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02208286748396244</v>
+        <v>0.03362296695049745</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>2993675513.080246</v>
+        <v>3985729937.028872</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1436338723643491</v>
+        <v>0.144702380349329</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04956130842763441</v>
+        <v>0.04904629712472956</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>19</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3648160102.656625</v>
+        <v>3690553059.31329</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2171539091472196</v>
+        <v>0.2057502140965804</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02733325462110566</v>
+        <v>0.02917964678634598</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>19</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1748826177.81566</v>
+        <v>1161485094.582812</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1228926108345639</v>
+        <v>0.1345529276039276</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05017720291880198</v>
+        <v>0.03956029092586717</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4327671131.895552</v>
+        <v>4414062290.874287</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1486826389885522</v>
+        <v>0.1238896564947389</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02492643075347739</v>
+        <v>0.01898722153105561</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>18</v>
+      </c>
+      <c r="K57" t="n">
+        <v>202.0162840110039</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1891782015.995227</v>
+        <v>1337568005.827177</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1414122204455242</v>
+        <v>0.1434852445133948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02512400608393748</v>
+        <v>0.03033604142345941</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4341279342.267583</v>
+        <v>3581194823.647094</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08456517265814317</v>
+        <v>0.1014801888352665</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03386039926900725</v>
+        <v>0.04524084296085299</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>18</v>
+      </c>
+      <c r="K59" t="n">
+        <v>148.3802187553091</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2622465245.037429</v>
+        <v>3194704498.787882</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2023978933702588</v>
+        <v>0.1628530549536842</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02138120092016598</v>
+        <v>0.02751745262226635</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3371966871.581342</v>
+        <v>2484481198.259905</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1759919688389542</v>
+        <v>0.1188972570515657</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02424164414685997</v>
+        <v>0.03013727526823541</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1369393475.810111</v>
+        <v>1287160069.225029</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1869404769192139</v>
+        <v>0.1251354380011082</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04556649152411384</v>
+        <v>0.03866449737927181</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3912651247.617615</v>
+        <v>5453861312.180412</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09781389975491429</v>
+        <v>0.09049670285138336</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04541765039453641</v>
+        <v>0.03622788735843625</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>18</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.3561608145241</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4493262975.610188</v>
+        <v>3619855717.669919</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1753863670413466</v>
+        <v>0.165595876799001</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03406963182045317</v>
+        <v>0.02547574829894214</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>19</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4249742833.649291</v>
+        <v>4009874832.979373</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1287229618095687</v>
+        <v>0.1109199743530695</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02105893921898156</v>
+        <v>0.02564074897259805</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>15</v>
+      </c>
+      <c r="J65" t="n">
+        <v>19</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3854132231.482105</v>
+        <v>4621827197.873424</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1618166054936397</v>
+        <v>0.1439530949736658</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03625298518609461</v>
+        <v>0.04240426324834367</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>19</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3166536008.509676</v>
+        <v>2196065522.748765</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0967079211081885</v>
+        <v>0.07711147899010165</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03481921630984819</v>
+        <v>0.04444621915396699</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4149453566.180614</v>
+        <v>4590683021.080706</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1518989213054186</v>
+        <v>0.1325173169117427</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04801143405458599</v>
+        <v>0.04687631670840334</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>19</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2107197817.69054</v>
+        <v>2171724255.07184</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1250471317557448</v>
+        <v>0.1737626296821505</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04601539378146727</v>
+        <v>0.03666763895765542</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2660096523.117435</v>
+        <v>3242038790.646906</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07697406024678155</v>
+        <v>0.09307573760987656</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03088845071686317</v>
+        <v>0.0444803362818848</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3487179187.627391</v>
+        <v>4977451526.827012</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1189146552637581</v>
+        <v>0.1121966313389044</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03371797103661281</v>
+        <v>0.03127183556454021</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15</v>
+      </c>
+      <c r="J71" t="n">
+        <v>19</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.5144634334502</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1376002614.931244</v>
+        <v>1968025334.179295</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07239382541318139</v>
+        <v>0.1029160331597023</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05254856712513659</v>
+        <v>0.05159445397810258</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3339934110.29792</v>
+        <v>2390184092.079989</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09657967461134195</v>
+        <v>0.09975190401593194</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0502228156699514</v>
+        <v>0.05274687767736153</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2786319498.855587</v>
+        <v>3833937196.012602</v>
       </c>
       <c r="F74" t="n">
-        <v>0.131300340548135</v>
+        <v>0.1789233633135091</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02282086800947885</v>
+        <v>0.02347070797396433</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>19</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2150565210.275017</v>
+        <v>2257081874.941051</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1357713833071384</v>
+        <v>0.1357161567412273</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02821628530408808</v>
+        <v>0.03205929463681623</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3291888935.00723</v>
+        <v>4453260567.13518</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1036531034826649</v>
+        <v>0.08051358320657404</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02274986665402975</v>
+        <v>0.02607079975943391</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>19</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1812365437.76965</v>
+        <v>1419099579.274036</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1253201158405</v>
+        <v>0.1308310756512218</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03055142719422039</v>
+        <v>0.01998022421395182</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3245934545.631435</v>
+        <v>4287108565.839617</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1204471368098644</v>
+        <v>0.118908580831672</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04816914601899291</v>
+        <v>0.05378466568739172</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>18</v>
+      </c>
+      <c r="K78" t="n">
+        <v>213.8780880193721</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1762509951.202457</v>
+        <v>1244044538.867913</v>
       </c>
       <c r="F79" t="n">
-        <v>0.147030349423803</v>
+        <v>0.1342433824489808</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03248770838575352</v>
+        <v>0.03857155187353854</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5419080378.082039</v>
+        <v>5051161825.734194</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08852156132973706</v>
+        <v>0.07969670606951483</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03806714023551625</v>
+        <v>0.0353409596134576</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>18</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.6103659633502</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4137927644.137391</v>
+        <v>3243467061.54807</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1255696793567262</v>
+        <v>0.114062959538585</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02038719830612159</v>
+        <v>0.03222164593028477</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>18</v>
+      </c>
+      <c r="K81" t="n">
+        <v>111.2802816554191</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5473027249.615342</v>
+        <v>4164041468.776326</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1362912463528666</v>
+        <v>0.1588924751973486</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01814743038295423</v>
+        <v>0.02467157198577854</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>19</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.3200962933524</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2055520217.454342</v>
+        <v>1727024101.505135</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1130041587318171</v>
+        <v>0.1206693474031388</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04291879956125701</v>
+        <v>0.0373413436900225</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1658419432.746378</v>
+        <v>2190636130.766273</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08357934365799995</v>
+        <v>0.08763037840636556</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03296409713826048</v>
+        <v>0.032207164560429</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2669414766.469278</v>
+        <v>3124198186.420072</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1634730010828639</v>
+        <v>0.143353821551471</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04168145591204391</v>
+        <v>0.03968028616793132</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2250534730.765814</v>
+        <v>2465858005.404627</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1275613569524152</v>
+        <v>0.1219739269772228</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01986117058041262</v>
+        <v>0.01845957999733725</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1185481854.454227</v>
+        <v>1216045265.10267</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1736671713100902</v>
+        <v>0.172701833214236</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03487325176246062</v>
+        <v>0.04403957285636287</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2888745121.213088</v>
+        <v>2998661496.438624</v>
       </c>
       <c r="F88" t="n">
-        <v>0.170257971732432</v>
+        <v>0.1532796691355991</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03956995686127795</v>
+        <v>0.02833374852768943</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3167090074.435063</v>
+        <v>2750098872.30185</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1041821486767963</v>
+        <v>0.09675737406061855</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02889385981908521</v>
+        <v>0.02541447921850485</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1798398130.410226</v>
+        <v>1936205685.056239</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1238952566159356</v>
+        <v>0.1101184229866817</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04959844947069673</v>
+        <v>0.04972055039105615</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1794859611.538777</v>
+        <v>2062861453.110578</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1709144283888809</v>
+        <v>0.1557389821916312</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05192713601897994</v>
+        <v>0.04756795975840572</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2054276047.379888</v>
+        <v>2159644106.983978</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09566915498532071</v>
+        <v>0.09023891211799462</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03167217281366412</v>
+        <v>0.04470326073143224</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4801984400.843287</v>
+        <v>3449502045.319759</v>
       </c>
       <c r="F93" t="n">
-        <v>0.105858095692769</v>
+        <v>0.1416092963183681</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05181985353648343</v>
+        <v>0.04901198623586036</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>19</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1542272252.983705</v>
+        <v>1864195498.321008</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1666377647110231</v>
+        <v>0.1112275662852319</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04104085603069654</v>
+        <v>0.02702870164322277</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3108041153.983065</v>
+        <v>2186100009.822469</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1297162086084687</v>
+        <v>0.09188262871976793</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05185563286750439</v>
+        <v>0.04764667242020198</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2049853821.301728</v>
+        <v>2405521432.775807</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0935391292117351</v>
+        <v>0.121711900263052</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04365406814509457</v>
+        <v>0.03452321513026164</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4294029259.196945</v>
+        <v>3259622150.493131</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1561897190573718</v>
+        <v>0.1631022741375478</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0196996983116348</v>
+        <v>0.02661050437877217</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>18</v>
+      </c>
+      <c r="K97" t="n">
+        <v>137.7275850564276</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2383420844.580987</v>
+        <v>3517239740.618329</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1195197883250945</v>
+        <v>0.1068636961413329</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02206235675523172</v>
+        <v>0.0216681102412602</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>19</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2655814486.38741</v>
+        <v>2083991832.174671</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1441680436959767</v>
+        <v>0.1199052088893812</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02434111354635006</v>
+        <v>0.02889409640795816</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3345204669.547442</v>
+        <v>4020304194.895933</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1659674063244056</v>
+        <v>0.1087780065094775</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0247661405379641</v>
+        <v>0.0174334789692337</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>18</v>
+      </c>
+      <c r="K100" t="n">
+        <v>199.9817599203284</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2994257889.827386</v>
+        <v>2551739980.225113</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1341697499548156</v>
+        <v>0.1365291151920694</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05284000792523002</v>
+        <v>0.04690505281939336</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
